--- a/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Charts/2_Water Change by Activities.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Charts/2_Water Change by Activities.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">AQUASTAT|Water withdrawal </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Blue Water</t>
+  </si>
+  <si>
+    <t>Green Water</t>
+  </si>
+  <si>
+    <t>Grey Water</t>
   </si>
   <si>
     <t>Chemicals</t>
@@ -31,7 +37,7 @@
     <t>Food and beverages</t>
   </si>
   <si>
-    <t>Fossil-fuels</t>
+    <t>Grain milling</t>
   </si>
   <si>
     <t>Machinery and equipment</t>
@@ -47,6 +53,9 @@
   </si>
   <si>
     <t>Other crops</t>
+  </si>
+  <si>
+    <t>Other livestock</t>
   </si>
   <si>
     <t>Other manufacturing</t>
@@ -425,151 +434,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.02016827386150233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-7.648207015782671e-05</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-0.001437862918966859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.0004213723202610709</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>2.218221148431176e-07</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4.170255759383679e-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.005242604028847353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.0004633021963847406</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.008710081292033323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.0005092521854592746</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>-1.425882607541951e-07</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-2.680659302534139e-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.01827507536738437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-1.020212210114946e-06</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-1.917998955014433e-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>3.509298660570037E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.0001342129003130133</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.002523202525885004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-7.164231189283804</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>596.843283913335</v>
+      </c>
+      <c r="C8">
+        <v>-83.82699106684379</v>
+      </c>
+      <c r="D8">
+        <v>-0.2489861222759231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004868314663795115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-4.049534002298349e-05</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-0.0007613123924321563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.0001187861285938396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.0001981508288334821</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.003725235582069164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.007286440070402023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-7.107421937746494e-05</v>
+      </c>
+      <c r="C11">
+        <v>-0.03307609101830167</v>
+      </c>
+      <c r="D11">
+        <v>-9.824386556545051e-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0001620476326413822</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>1.006677481235618e-06</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1.892553664717411e-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.0002979954159911813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>1.164855230728623e-05</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.0002189927833766703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-1.54320251191109E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>9.522957807361898e-05</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.001790316067779685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0133739806250186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>1.482065364840496e-05</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.0002786282885899327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0003939925949083545</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.0002772929628596515</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>-0.005213107701761421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>0.0006035902011416461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>1.797868684344506e-05</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.0003379993126571001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>-0.006330605944493861</v>
+        <v>5.630433212779062e-05</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.001058521444002425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>-7.252693075279759e-05</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>-0.001363506298152295</v>
       </c>
     </row>
   </sheetData>
